--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/79.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/79.xlsx
@@ -479,13 +479,13 @@
         <v>-3.161462950272008</v>
       </c>
       <c r="E2" t="n">
-        <v>-12.25222485142297</v>
+        <v>-12.63835613913399</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1567175788545531</v>
+        <v>1.097158448903236</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.152059184622125</v>
+        <v>-9.747169810292784</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.943256603601696</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.87202756025312</v>
+        <v>-13.23245865748584</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1354425867367482</v>
+        <v>1.144906077367011</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.048328869207129</v>
+        <v>-9.518263987408044</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.695472349222965</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.23185641155512</v>
+        <v>-13.41411435941479</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1559713175925747</v>
+        <v>1.050706958420792</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.445650892493953</v>
+        <v>-8.847231097558216</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.430916211208438</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.83549012637574</v>
+        <v>-14.07925571298584</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1363328633299856</v>
+        <v>1.08634420675597</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.223697082418171</v>
+        <v>-8.687753756643151</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.140862626251465</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.19706025395569</v>
+        <v>-14.44813134555147</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.202894130977321</v>
+        <v>1.188686738069743</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.784646706620887</v>
+        <v>-8.190180787143351</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.819822253388956</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.91602406450908</v>
+        <v>-15.25840087612305</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03189013588335262</v>
+        <v>1.520563522804657</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.29316165794249</v>
+        <v>-7.693262432785639</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.455006596300222</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.67207836901307</v>
+        <v>-16.10064181023413</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1129238258489794</v>
+        <v>1.362251396842505</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.022556850506854</v>
+        <v>-7.411751737082845</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.041440677316053</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.25215903102143</v>
+        <v>-16.71363652158659</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.08832338880937614</v>
+        <v>1.349342386240563</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.684736160281797</v>
+        <v>-7.03996961328635</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.5765010550585963</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.9579388926132</v>
+        <v>-17.44971197195411</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02779767277207652</v>
+        <v>1.413416116347971</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.524329265864969</v>
+        <v>-6.760789347489383</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.07410502712114188</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.42465330431505</v>
+        <v>-17.89574054516604</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1440311374009206</v>
+        <v>1.246371424390388</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.293917828153432</v>
+        <v>-6.465518641499935</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4367923763242555</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.96197450524233</v>
+        <v>-18.44132298918645</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06969304186559994</v>
+        <v>1.366833702837109</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.002980674404595</v>
+        <v>-6.203070338734695</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.9209251813572422</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.29810628840081</v>
+        <v>-18.75959687126881</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07973483814520384</v>
+        <v>1.366755149020059</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.424484181040087</v>
+        <v>-5.626105644802668</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.337095575805411</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.1767176398062</v>
+        <v>-19.79449104169588</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1960152443072306</v>
+        <v>1.65431448863573</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.025875928720895</v>
+        <v>-5.339240197237609</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.654076894362857</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.8275360140684</v>
+        <v>-20.49605518177262</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3354351772687715</v>
+        <v>1.88337741915457</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.88581447292011</v>
+        <v>-5.125259599592438</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.859086406804324</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.64195580464082</v>
+        <v>-21.33278425638733</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5218302928264256</v>
+        <v>2.01210094069442</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.544917091527246</v>
+        <v>-4.852258900736766</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.95494825732173</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.4963725803947</v>
+        <v>-22.27861149058215</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8232412888486431</v>
+        <v>2.371091884614549</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.389184149224914</v>
+        <v>-4.82536731069986</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.963034594500514</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.17760437415823</v>
+        <v>-23.08251816197265</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7444518103471356</v>
+        <v>2.235874580865203</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.266823486866143</v>
+        <v>-4.719345842287563</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.915098851949296</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.62686674617206</v>
+        <v>-23.43111381743645</v>
       </c>
       <c r="F19" t="n">
-        <v>1.15384812020791</v>
+        <v>2.810469567982876</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.810975686522925</v>
+        <v>-4.307461994886861</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.843642503107985</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.07903560941676</v>
+        <v>-23.95834085287276</v>
       </c>
       <c r="F20" t="n">
-        <v>1.346488264221067</v>
+        <v>2.894417413804024</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.446433606197904</v>
+        <v>-4.052973812249389</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.781131585724861</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.63723903337659</v>
+        <v>-24.39752215169846</v>
       </c>
       <c r="F21" t="n">
-        <v>1.450153118121854</v>
+        <v>2.896878766738268</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.339940814883304</v>
+        <v>-4.125060031695933</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.751835719920261</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.06855185819441</v>
+        <v>-24.85568728964467</v>
       </c>
       <c r="F22" t="n">
-        <v>1.604092414934869</v>
+        <v>3.015023707582004</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.292821616955932</v>
+        <v>-4.148298869239997</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.770545230757611</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.4173962674122</v>
+        <v>-25.15658768585606</v>
       </c>
       <c r="F23" t="n">
-        <v>1.827237624569248</v>
+        <v>3.212560372857967</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.022112071097562</v>
+        <v>-3.891205318337022</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.849263996458254</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.13654337020537</v>
+        <v>-26.07964740540911</v>
       </c>
       <c r="F24" t="n">
-        <v>2.043051144612261</v>
+        <v>3.436805335931051</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.071011822211409</v>
+        <v>-3.994084634067305</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.991554155763372</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.2421982541381</v>
+        <v>-26.12224975885609</v>
       </c>
       <c r="F25" t="n">
-        <v>2.257110296074482</v>
+        <v>3.675242355284567</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.138319351120723</v>
+        <v>-3.890616164709144</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.195832795612601</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.3445800623604</v>
+        <v>-26.2138435095368</v>
       </c>
       <c r="F26" t="n">
-        <v>2.33961798858304</v>
+        <v>3.76272512287298</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.177727182674318</v>
+        <v>-3.93010255007979</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.458810523650715</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.30959742916731</v>
+        <v>-26.1075078258563</v>
       </c>
       <c r="F27" t="n">
-        <v>2.276774934942755</v>
+        <v>3.674483001719746</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.287427588185141</v>
+        <v>-4.080572386639748</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.771218946399233</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.24678056013271</v>
+        <v>-26.05732502906397</v>
       </c>
       <c r="F28" t="n">
-        <v>2.289579207121963</v>
+        <v>3.690796011060537</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.272017947740429</v>
+        <v>-4.111339298317804</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.12261719489455</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.35358756671551</v>
+        <v>-26.17341447836155</v>
       </c>
       <c r="F29" t="n">
-        <v>2.453390100277639</v>
+        <v>3.88621172327614</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.38094590738359</v>
+        <v>-4.203509110323556</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.500528743397297</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.26603933761288</v>
+        <v>-26.21292704833788</v>
       </c>
       <c r="F30" t="n">
-        <v>2.446791579645409</v>
+        <v>3.874140620056069</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.613255729007177</v>
+        <v>-4.546697644713721</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.886570894735972</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.7421770240069</v>
+        <v>-25.59727459950856</v>
       </c>
       <c r="F31" t="n">
-        <v>2.169837005331536</v>
+        <v>3.539998866929536</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.594088597646891</v>
+        <v>-4.563599807682389</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>4.263531754608643</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.59640732416712</v>
+        <v>-25.48359413393385</v>
       </c>
       <c r="F32" t="n">
-        <v>2.285782439297862</v>
+        <v>3.681029153140609</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.92858384295015</v>
+        <v>-4.786640278894034</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>4.611838851204255</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.5106789251595</v>
+        <v>-25.55617786088838</v>
       </c>
       <c r="F33" t="n">
-        <v>2.134199756996358</v>
+        <v>3.587026418737016</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.040182632373023</v>
+        <v>-4.988104635022515</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>4.91163474666849</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.98800801111211</v>
+        <v>-25.00551560336538</v>
       </c>
       <c r="F34" t="n">
-        <v>1.954416254373775</v>
+        <v>3.383310186519759</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.126919138699458</v>
+        <v>-5.051353550050894</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.155156503191408</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.41422474677062</v>
+        <v>-24.346357432193</v>
       </c>
       <c r="F35" t="n">
-        <v>2.004140820566651</v>
+        <v>3.541857973933061</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.175714151390571</v>
+        <v>-5.224656362766822</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.341267890142302</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.0423378845514</v>
+        <v>-24.07615848614545</v>
       </c>
       <c r="F36" t="n">
-        <v>1.900659258905648</v>
+        <v>3.451678191959252</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.192354468302405</v>
+        <v>-5.034647771624852</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.474506747365573</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.6162096116589</v>
+        <v>-23.72614886197475</v>
       </c>
       <c r="F37" t="n">
-        <v>1.7871228086622</v>
+        <v>3.242489377154153</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.225988594302799</v>
+        <v>-5.143379346725387</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.562676341201595</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.00482525355597</v>
+        <v>-23.05139775811787</v>
       </c>
       <c r="F38" t="n">
-        <v>1.932630662445143</v>
+        <v>3.467258032340906</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.013147027004859</v>
+        <v>-4.813296207479789</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.610839722694341</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.6134701370111</v>
+        <v>-22.70038002662835</v>
       </c>
       <c r="F39" t="n">
-        <v>1.727395723098245</v>
+        <v>3.128638711642503</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.999098986055686</v>
+        <v>-4.723705579133857</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.622806604749647</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.1338467147073</v>
+        <v>-22.18195101870169</v>
       </c>
       <c r="F40" t="n">
-        <v>1.803173971946156</v>
+        <v>3.365845054528896</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.062059870421547</v>
+        <v>-4.707850800392527</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>5.601748909745277</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.5596183120692</v>
+        <v>-21.63710174364041</v>
       </c>
       <c r="F41" t="n">
-        <v>1.817575505072055</v>
+        <v>3.331674144111991</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.94542054440461</v>
+        <v>-4.666492215715515</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>5.551353626448195</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.93099139112372</v>
+        <v>-20.97825778773623</v>
       </c>
       <c r="F42" t="n">
-        <v>1.786834777999682</v>
+        <v>3.219420739547032</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.128935353337084</v>
+        <v>-4.869239617522484</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>5.475480499244882</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.40757421581436</v>
+        <v>-20.45761618062931</v>
       </c>
       <c r="F43" t="n">
-        <v>1.648501506174004</v>
+        <v>3.14856519656761</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.97637074832245</v>
+        <v>-4.596121087941237</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>5.377636332075847</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.01750214494797</v>
+        <v>-20.07122304686145</v>
       </c>
       <c r="F44" t="n">
-        <v>1.59105248130451</v>
+        <v>3.00816334089294</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.887107427547562</v>
+        <v>-4.425096335919769</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>5.258246052080314</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.76886622168075</v>
+        <v>-19.8598216328761</v>
       </c>
       <c r="F45" t="n">
-        <v>1.580919038905014</v>
+        <v>2.842152940859853</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.12041226418712</v>
+        <v>-4.639626810284293</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>5.117058897164543</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.14876238988523</v>
+        <v>-19.17793522397048</v>
       </c>
       <c r="F46" t="n">
-        <v>1.674136235138104</v>
+        <v>2.987844086882581</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.055657734331943</v>
+        <v>-4.58203377008354</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.955447296652943</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.77694098918021</v>
+        <v>-18.77903894098877</v>
       </c>
       <c r="F47" t="n">
-        <v>1.626637360428322</v>
+        <v>2.847625523447695</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.90393103669918</v>
+        <v>-4.367882972501427</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.771357392617544</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.38758899497012</v>
+        <v>-18.38350737983738</v>
       </c>
       <c r="F48" t="n">
-        <v>1.60584678351566</v>
+        <v>2.834795066662803</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.896638624016338</v>
+        <v>-4.344997627134089</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>4.562078804093622</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.90630285020543</v>
+        <v>-17.84145985758424</v>
       </c>
       <c r="F49" t="n">
-        <v>1.552377818710051</v>
+        <v>2.779833579333237</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.820101021603608</v>
+        <v>-4.32088160529963</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>4.326878006651123</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.52132368514448</v>
+        <v>-17.42486278116052</v>
       </c>
       <c r="F50" t="n">
-        <v>1.422764020576963</v>
+        <v>2.651398088455904</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.960830184849321</v>
+        <v>-4.583343000367712</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>4.061062530694366</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.97780982497306</v>
+        <v>-16.82103268179727</v>
       </c>
       <c r="F51" t="n">
-        <v>1.334993222326032</v>
+        <v>2.474468707852818</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.005147629968564</v>
+        <v>-4.557446425346778</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>3.763066440511857</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.52260354746909</v>
+        <v>-16.29978882875963</v>
       </c>
       <c r="F52" t="n">
-        <v>1.441774044303149</v>
+        <v>2.624401759996265</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.137222781035897</v>
+        <v>-4.641485917287818</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>3.433023180414474</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.96391570830411</v>
+        <v>-15.73171380845714</v>
       </c>
       <c r="F53" t="n">
-        <v>1.573430241679547</v>
+        <v>2.762394631948058</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.246438771341575</v>
+        <v>-4.701213002851772</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>3.067078846771942</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.59291912267812</v>
+        <v>-15.35277019500622</v>
       </c>
       <c r="F54" t="n">
-        <v>1.465052158755738</v>
+        <v>2.646580121010149</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.359137314203154</v>
+        <v>-4.849273855688852</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>2.668730532073299</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.13728079918037</v>
+        <v>-14.99554671196972</v>
       </c>
       <c r="F55" t="n">
-        <v>1.211847021796756</v>
+        <v>2.30298572523189</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.503427583821816</v>
+        <v>-4.922472920876943</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>2.238759151030005</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.95112134507387</v>
+        <v>-14.72609402718416</v>
       </c>
       <c r="F56" t="n">
-        <v>1.306111602257184</v>
+        <v>2.403298949605195</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.595597395827568</v>
+        <v>-4.928992887692123</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.774644435004401</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.60259115112428</v>
+        <v>-14.38689864516072</v>
       </c>
       <c r="F57" t="n">
-        <v>1.263954387106826</v>
+        <v>2.371275176854333</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.72645496273062</v>
+        <v>-5.111839989179669</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.280465226506073</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.31435101176083</v>
+        <v>-14.01075678451793</v>
       </c>
       <c r="F58" t="n">
-        <v>1.343005711665168</v>
+        <v>2.470855232268502</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.122038893093373</v>
+        <v>-5.542642214186665</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.7561564234268031</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.86387105558272</v>
+        <v>-13.44980397696133</v>
       </c>
       <c r="F59" t="n">
-        <v>1.270369615499272</v>
+        <v>2.377480928401312</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.300591719248834</v>
+        <v>-5.715185673337773</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2037050546065723</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.39737921302918</v>
+        <v>-13.02139764337437</v>
       </c>
       <c r="F60" t="n">
-        <v>1.082076116029568</v>
+        <v>2.146480337061897</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.365411710618219</v>
+        <v>-5.683070254467019</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3682116358608419</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.42877455524364</v>
+        <v>-13.23659582518382</v>
       </c>
       <c r="F61" t="n">
-        <v>1.112005120325753</v>
+        <v>2.197959271835564</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.650732266447955</v>
+        <v>-6.023457036049055</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.9558209139017254</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.11288347227847</v>
+        <v>-12.98890254772121</v>
       </c>
       <c r="F62" t="n">
-        <v>1.035271133370397</v>
+        <v>2.150015258829163</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.002980674404595</v>
+        <v>-6.492528062262417</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.54782135565621</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.90647022567582</v>
+        <v>-12.79628858831373</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9667591125996442</v>
+        <v>2.125061329612833</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.984860927271646</v>
+        <v>-6.414694321868355</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.129476448602148</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.62139842360008</v>
+        <v>-12.3885680932167</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8566659380035697</v>
+        <v>1.92760321815392</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.930108916787548</v>
+        <v>-6.411172492403931</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.691485246469158</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.64561918385727</v>
+        <v>-12.5369169767163</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9097159491182438</v>
+        <v>2.023360321138305</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.913625707509815</v>
+        <v>-6.370010292269543</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.216962417341426</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.45094973290365</v>
+        <v>-12.17236180408844</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8708318096783173</v>
+        <v>1.942528443393488</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.985515542413732</v>
+        <v>-6.517468899175904</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.692562228823311</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.34731106360854</v>
+        <v>-12.1071490436338</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6650339013092252</v>
+        <v>1.741980548463928</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.147847005348294</v>
+        <v>-6.798076225982619</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.108118189532489</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.34663026386077</v>
+        <v>-12.13345148004283</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6678487464201964</v>
+        <v>1.783273671626732</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.941158820385964</v>
+        <v>-6.57788987679047</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.452015244198054</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.34926181673196</v>
+        <v>-12.21314432744041</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6170506113942993</v>
+        <v>1.604458999414438</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.756086027415325</v>
+        <v>-6.431884515499541</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.719770547486379</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.27438693678013</v>
+        <v>-12.07424808659254</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3344008853442751</v>
+        <v>1.365026965044951</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.535454539926557</v>
+        <v>-6.216974364352608</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.909066365400768</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.09705169478895</v>
+        <v>-11.82067636515399</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3448092661034474</v>
+        <v>1.287847839792976</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.580334954067994</v>
+        <v>-6.292097998058432</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.019396630215621</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.27619367457229</v>
+        <v>-12.01893310708625</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4438132601925799</v>
+        <v>1.476049693142788</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.414232907915015</v>
+        <v>-6.162654399862286</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.056067960523809</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.44973214873937</v>
+        <v>-12.20572099172916</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3027960662843484</v>
+        <v>1.308363478345961</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.350578131498543</v>
+        <v>-6.068337450190492</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.025946970216429</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.81766513550039</v>
+        <v>-12.62277629875234</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2659936029962565</v>
+        <v>1.303440772477472</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.304833625369552</v>
+        <v>-5.892403084603377</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.937317782418342</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.27397116644307</v>
+        <v>-13.11021582585264</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2217154347855389</v>
+        <v>1.268602154615639</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.159325771586609</v>
+        <v>-5.864765233304493</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.796807900582005</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.28995686821282</v>
+        <v>-13.1331404481285</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1990002893551442</v>
+        <v>1.335700206679485</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.943891928326006</v>
+        <v>-5.69666006481673</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.60961307636157</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.66349336059011</v>
+        <v>-13.57627562241241</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1423106180504703</v>
+        <v>1.202878794350174</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.748332200779144</v>
+        <v>-5.513354732729724</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.377391106044235</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.51010712385032</v>
+        <v>-14.40619669954942</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.03914869933585302</v>
+        <v>1.028777351160901</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.628027029966524</v>
+        <v>-5.382470981220988</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.098545160816482</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.08497704932767</v>
+        <v>-14.92185013927364</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.09651917038829666</v>
+        <v>0.9355994318363362</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.677673042342349</v>
+        <v>-5.667791537050724</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.772572782851977</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.62897532470423</v>
+        <v>-15.50272943175535</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.1178858086259936</v>
+        <v>0.9513232875492492</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.278292344155495</v>
+        <v>-5.132552012275279</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.394097218285533</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.3304870955696</v>
+        <v>-16.29918658282891</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.09447677114498738</v>
+        <v>1.046177021637555</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.848904087855405</v>
+        <v>-4.774569175673963</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.960466025350485</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.27539786856549</v>
+        <v>-17.30204388820228</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3455740473464516</v>
+        <v>0.7280733394921363</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.741560296856093</v>
+        <v>-4.750911384438965</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.473205997831857</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.99912727735327</v>
+        <v>-17.97075944044913</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.4478903940545409</v>
+        <v>0.6143535970089037</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.541117140349267</v>
+        <v>-4.523563545592391</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.929516007718574</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.94839778719546</v>
+        <v>-18.9476678015902</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5801095604531324</v>
+        <v>0.566880906904805</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.268325918339062</v>
+        <v>-4.292026169836466</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.33746223225609</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.93932800468002</v>
+        <v>-19.86310780088937</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.5820734058793914</v>
+        <v>0.6043379853349833</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.308087242069385</v>
+        <v>-4.419545199514878</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.7068074230743208</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.21684873136997</v>
+        <v>-21.15360299969547</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.801225463147044</v>
+        <v>0.3769377772770431</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.966011553420766</v>
+        <v>-3.942278391722595</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.04715288635591684</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.28300732098309</v>
+        <v>-22.14509618620222</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7913669591072243</v>
+        <v>0.3938661248513949</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.209606940093921</v>
+        <v>-4.230021023578051</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.6214241886796399</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.85346832375665</v>
+        <v>-23.70060577913054</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.689914704386689</v>
+        <v>0.586375345836135</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.960709170769867</v>
+        <v>-3.969562750844752</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.281746155838827</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.14472287612757</v>
+        <v>-25.1317515873653</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.022865057954625</v>
+        <v>0.1420487719936357</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.085465724548675</v>
+        <v>-4.129380491633703</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.9158434787564</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.67209711024902</v>
+        <v>-26.5833999418502</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9674715246312816</v>
+        <v>0.262288481292048</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.917897340477423</v>
+        <v>-3.867848650067383</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.50327908426561</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.36220866869312</v>
+        <v>-28.28691801840423</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.077564699227356</v>
+        <v>0.1364190817716935</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.068877776848208</v>
+        <v>-3.960162477404393</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.031637185071572</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.02050593123183</v>
+        <v>-30.01845362303956</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.292828342551016</v>
+        <v>-0.1754264796153797</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.349982611162908</v>
+        <v>-4.343387273884557</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>3.486284527053213</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.8472225775265</v>
+        <v>-31.81910349437635</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.380847894555941</v>
+        <v>-0.1553821639646971</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.334114740118736</v>
+        <v>-4.22644682490226</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>3.852395511811994</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.66618858053887</v>
+        <v>-33.75169759375206</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.283794653590225</v>
+        <v>-0.1209101305824323</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.745383249285877</v>
+        <v>-4.724412563487311</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>4.122270128455188</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.52863412128861</v>
+        <v>-35.67845252606036</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.646228873157728</v>
+        <v>-0.5341817620843574</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.803107212515047</v>
+        <v>-4.682674302027888</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.28084313155362</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.53989986844025</v>
+        <v>-37.80595173784085</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.847601583166317</v>
+        <v>-0.5954930162921606</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.252408861437402</v>
+        <v>-5.067915313145678</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>4.327593444976236</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.7154871085584</v>
+        <v>-39.98724722199799</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.967422338773793</v>
+        <v>-0.8434088629030854</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.410432956737036</v>
+        <v>-5.183363239604018</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.252554007163587</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.93366360982068</v>
+        <v>-42.12967165901804</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.094587876275479</v>
+        <v>-0.904798670927939</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.869894232664571</v>
+        <v>-5.621549523413748</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>4.077784992468652</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.11762992375753</v>
+        <v>-44.49982361166708</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.31668570168252</v>
+        <v>-1.195879840008035</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.035106002224312</v>
+        <v>-5.717254257186766</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.794668863606788</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.29942291542265</v>
+        <v>-46.68246760301691</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.490577668026325</v>
+        <v>-1.430467722326082</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.099834347473806</v>
+        <v>-5.905181172176901</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>3.469424665587746</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.27879581285185</v>
+        <v>-48.68226449287921</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.601993165209414</v>
+        <v>-1.526800886635503</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.603377407069432</v>
+        <v>-6.337646119644797</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>3.065664912410331</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.57319570125866</v>
+        <v>-51.03597251315903</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.932351242814688</v>
+        <v>-1.92924518368732</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.924675611108231</v>
+        <v>-6.645040298065683</v>
       </c>
     </row>
   </sheetData>
